--- a/biology/Botanique/Ornithogalum_narbonense/Ornithogalum_narbonense.xlsx
+++ b/biology/Botanique/Ornithogalum_narbonense/Ornithogalum_narbonense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ornithogale de Narbonne (Loncomelos narbonensis, anciennement Ornithogalum narbonense) est une plante vivace à longues grappes pluri-flores (20 à 50 petites fleurs autour de la tige). La plante possède un bulbe souterrain et des feuilles qui émergent au ras du sol. Elle croît dans les champs et lieux herbeux ou dans les bois clairsemés[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ornithogale de Narbonne (Loncomelos narbonensis, anciennement Ornithogalum narbonense) est une plante vivace à longues grappes pluri-flores (20 à 50 petites fleurs autour de la tige). La plante possède un bulbe souterrain et des feuilles qui émergent au ras du sol. Elle croît dans les champs et lieux herbeux ou dans les bois clairsemés.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Appareil végétatif</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La tige florale dépasse les feuilles et peut atteindre 60 cm.
 Cette tige florale s'insère dans l'étui que forment les feuilles et qui part du bulbe enfoui à 15 cm sous terre. Ce bulbe mesure de 2 à 2,5 cm de diamètre, de forme subovale, recouvert d'une pellicule parcheminée gris-blanc.
@@ -543,10 +557,12 @@
           <t>Appareil reproducteur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante fleurit d'avril à juillet, à partir du bas de l'inflorescence. Celle-ci est une grappe allongée portée au bout d'une hampe florale pouvant atteindre 60 cm de longueur.
-Les fleurs portent 6 tépales[2] (pétales et sépales) blancs avec une étroite bande verte visible à la face inférieure ou sur les fleurs fermées.
+Les fleurs portent 6 tépales (pétales et sépales) blancs avec une étroite bande verte visible à la face inférieure ou sur les fleurs fermées.
 La pollinisation est faite par les insectes butineurs. Bien qu'elle puisse être "autogame" (les fleurs sont hermaphrodites), il est possible que des mécanismes existent empêchant l'autofécondation.
 Les fruits sont des capsules. Les graines sont disséminées par le vent.
 </t>
@@ -577,7 +593,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est comestible, sous réserves. Ce sont les bulbes qui sont utilisés en cuisine.
 La plante a des propriétés résolutives.
@@ -611,7 +629,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ornithogalum narbonense L., 1756
 Ornithogalum brachystachys K.Koch, 1849
